--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.67889999999999</v>
+        <v>-21.70949999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.54500000000002</v>
+        <v>-22.4235</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.10179999999998</v>
+        <v>-20.07919999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.1972</v>
+        <v>-12.1903</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.36400000000001</v>
+        <v>-22.31840000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.1104</v>
+        <v>-11.1651</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,10 +638,10 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6244</v>
+        <v>-10.7955</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.283199999999998</v>
+        <v>-7.119999999999997</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.611800000000002</v>
+        <v>-8.4971</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.917000000000002</v>
+        <v>-7.921399999999997</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.89259999999999</v>
+        <v>-14.54699999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.57159999999999</v>
+        <v>-21.67949999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.129500000000005</v>
+        <v>-9.095400000000005</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.662800000000001</v>
+        <v>-7.9085</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.8918</v>
+        <v>-19.7301</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.77030000000001</v>
+        <v>-11.81360000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.771700000000004</v>
+        <v>-7.054299999999997</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.703</v>
+        <v>-19.69679999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.42840000000001</v>
+        <v>-11.83380000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,10 +808,10 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.55479999999999</v>
+        <v>-12.48779999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.263200000000001</v>
+        <v>-8.186200000000003</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.72750000000001</v>
+        <v>-12.00480000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9296</v>
+        <v>-21.75759999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.69699999999999</v>
+        <v>-21.59389999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.38160000000001</v>
+        <v>-11.57310000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.41819999999998</v>
+        <v>-21.6085</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.20649999999999</v>
+        <v>-21.23679999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.18130000000001</v>
+        <v>-11.26350000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.189899999999998</v>
+        <v>-8.248199999999995</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.19429999999999</v>
+        <v>-20.1227</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.8792</v>
+        <v>-12.1103</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,10 +1165,10 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.53469999999999</v>
+        <v>-13.6053</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.526399999999997</v>
+        <v>-8.354800000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-14.00589999999999</v>
+        <v>-13.7311</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.69399999999999</v>
+        <v>-13.74479999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.0398</v>
+        <v>-21.9148</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-12.82900000000001</v>
+        <v>-12.60370000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.679299999999996</v>
+        <v>-8.688899999999995</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.18979999999999</v>
+        <v>-14.16869999999998</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.1348</v>
+        <v>-7.978400000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.5672</v>
+        <v>-21.5848</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.10260000000001</v>
+        <v>-10.89690000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.1743</v>
+        <v>-22.2895</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.0768</v>
+        <v>-21.8157</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.98289999999999</v>
+        <v>-11.95069999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2602</v>
+        <v>-22.25960000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.29670000000001</v>
+        <v>-22.3011</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-13.1564</v>
+        <v>-13.07369999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.5505</v>
+        <v>-21.581</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.15570000000001</v>
+        <v>-11.01430000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.308</v>
+        <v>-11.3015</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.67580000000001</v>
+        <v>-20.5076</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-22.00389999999998</v>
+        <v>-22.03869999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.873300000000001</v>
+        <v>-7.804299999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.59329999999999</v>
+        <v>-19.66769999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.95400000000001</v>
+        <v>-11.69570000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.83399999999999</v>
+        <v>-12.86919999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.93079999999999</v>
+        <v>-13.6093</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.8432</v>
+        <v>-21.52020000000001</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.54640000000001</v>
+        <v>-11.5321</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.0779</v>
+        <v>-8.221999999999996</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.21730000000001</v>
+        <v>-11.0643</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.239699999999994</v>
+        <v>-8.260599999999993</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.0623</v>
+        <v>-8.101099999999997</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.208</v>
+        <v>-22.2338</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
